--- a/Método de la rigidez/aux_armadura_2D.xlsx
+++ b/Método de la rigidez/aux_armadura_2D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Aplicacion-Civil-Estructural\Método de la rigidez - Armadura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Aplicacion-Civil-Estructural\Método de la rigidez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6847FF-65FD-4E6B-8F9F-D59743CB867C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3DABE-E418-4E18-9851-ED0E32797685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{21517057-801C-4B6C-93A2-3BF259A99BFD}"/>
   </bookViews>
@@ -115,15 +115,15 @@
     <t>Grado de libertad</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Valor
 [cm]</t>
   </si>
   <si>
     <t>Valor
 [ton]</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -227,19 +227,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -258,6 +245,19 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -288,6 +288,25 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Monospac821 BT"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -308,25 +327,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Monospac821 BT"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -376,6 +376,47 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Monospac821 BT"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Monospac821 BT"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -400,66 +441,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Monospac821 BT"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Monospac821 BT"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Monospac821 BT"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -595,9 +576,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -616,6 +594,28 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Monospac821 BT"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -630,23 +630,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5140763-0C28-4A1D-B21F-09A41B9A4D56}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5140763-0C28-4A1D-B21F-09A41B9A4D56}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:C11" xr:uid="{B5140763-0C28-4A1D-B21F-09A41B9A4D56}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{339F59B4-C67D-47C4-9482-CFEEB64CDF6C}" name="Nodo" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{17369EDB-8E84-44F4-B6E5-785A8C3B4D3C}" name="Coordenada x_x000a_[m]" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BEC05995-6F16-44B1-8304-03BA74D1A82A}" name="Coordenada y_x000a_[m]" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{339F59B4-C67D-47C4-9482-CFEEB64CDF6C}" name="Nodo" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{17369EDB-8E84-44F4-B6E5-785A8C3B4D3C}" name="Coordenada x_x000a_[m]" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{BEC05995-6F16-44B1-8304-03BA74D1A82A}" name="Coordenada y_x000a_[m]" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2DDC6CBE-6079-47DB-89A5-4FF3569ED42D}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2DDC6CBE-6079-47DB-89A5-4FF3569ED42D}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:E19" xr:uid="{2DDC6CBE-6079-47DB-89A5-4FF3569ED42D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -655,11 +655,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{61965F3F-FEBD-46EF-8C5B-6855A528EB7C}" name="Elemento" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E1B14937-A704-4379-ACBF-E4B4B7028C90}" name="Nodo inicio" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{AF81ED11-1888-44E5-86BC-19711CD49F2A}" name="Nodo fin" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{03B59C30-4344-47EB-A1D6-E01351BF393B}" name="Área_x000a_[cm2]" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{954AF116-F452-4B6B-92DA-9C79EB14D2F4}" name="Módulo de elasticidad_x000a_[kg/cm2]" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{61965F3F-FEBD-46EF-8C5B-6855A528EB7C}" name="Elemento" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E1B14937-A704-4379-ACBF-E4B4B7028C90}" name="Nodo inicio" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{AF81ED11-1888-44E5-86BC-19711CD49F2A}" name="Nodo fin" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{03B59C30-4344-47EB-A1D6-E01351BF393B}" name="Área_x000a_[cm2]" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{954AF116-F452-4B6B-92DA-9C79EB14D2F4}" name="Módulo de elasticidad_x000a_[kg/cm2]" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,8 +673,8 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF56F102-AE86-493B-BE8B-31C5587E3C53}" name="Nodo" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8DDC3555-DF29-48C4-94B6-210F7525CDF3}" name="Grado de libertad" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DF56F102-AE86-493B-BE8B-31C5587E3C53}" name="Nodo" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8DDC3555-DF29-48C4-94B6-210F7525CDF3}" name="Grado de libertad" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{0F978756-6636-433F-A3F7-6A8442DCDC3C}" name="Valor_x000a_[cm]" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -682,15 +682,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6C02C847-41B5-4136-9684-4F52ACD4DA39}" name="Table4" displayName="Table4" ref="A1:C21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6C02C847-41B5-4136-9684-4F52ACD4DA39}" name="Table4" displayName="Table4" ref="A1:C21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:C21" xr:uid="{6C02C847-41B5-4136-9684-4F52ACD4DA39}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FD89DD72-9A00-4B21-8579-4C84081B18EE}" name="Nodo" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8067E4E5-2660-4DFE-B874-5DFD94D7BEF1}" name="Grado de libertad" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{FD89DD72-9A00-4B21-8579-4C84081B18EE}" name="Nodo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8067E4E5-2660-4DFE-B874-5DFD94D7BEF1}" name="Grado de libertad" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{B1E7B80A-5DF3-4414-8A45-915F6566CA82}" name="Valor_x000a_[ton]" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -698,14 +698,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6AA3ADD5-9C92-495E-BAAE-198A4AED2C95}" name="Table5" displayName="Table5" ref="A1:B19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6AA3ADD5-9C92-495E-BAAE-198A4AED2C95}" name="Table5" displayName="Table5" ref="A1:B19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B19" xr:uid="{6AA3ADD5-9C92-495E-BAAE-198A4AED2C95}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{395A032C-75EB-4842-9AED-7D100A5214B7}" name="Elemento" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{289E208C-A88D-4017-8B9B-22BD987FCD37}" name="Valor_x000a_[ton]" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{289E208C-A88D-4017-8B9B-22BD987FCD37}" name="Valor_x000a_[ton]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,12 +2016,12 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2040,7 +2040,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
